--- a/_Out/Server/NFDataCfg/Excel_Struct/GuildJob.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Struct/GuildJob.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Struct\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -221,9 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Guild</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -303,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +697,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
